--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F9-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F9-Lrp1.xlsx
@@ -534,22 +534,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.36854</v>
+        <v>0.622153</v>
       </c>
       <c r="H2">
-        <v>1.10562</v>
+        <v>1.866459</v>
       </c>
       <c r="I2">
-        <v>0.6270882949984148</v>
+        <v>0.5959696685805808</v>
       </c>
       <c r="J2">
-        <v>0.6270882949984148</v>
+        <v>0.5959696685805808</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N2">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O2">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P2">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q2">
-        <v>1.454507481653333</v>
+        <v>1.808503166822333</v>
       </c>
       <c r="R2">
-        <v>13.09056733488</v>
+        <v>16.276528501401</v>
       </c>
       <c r="S2">
-        <v>0.005068308107716705</v>
+        <v>0.003290065894492701</v>
       </c>
       <c r="T2">
-        <v>0.005215921981649739</v>
+        <v>0.003352055744279971</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.36854</v>
+        <v>0.622153</v>
       </c>
       <c r="H3">
-        <v>1.10562</v>
+        <v>1.866459</v>
       </c>
       <c r="I3">
-        <v>0.6270882949984148</v>
+        <v>0.5959696685805808</v>
       </c>
       <c r="J3">
-        <v>0.6270882949984148</v>
+        <v>0.5959696685805808</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P3">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q3">
-        <v>68.47574339660667</v>
+        <v>115.5977347952163</v>
       </c>
       <c r="R3">
-        <v>616.28169056946</v>
+        <v>1040.379613156947</v>
       </c>
       <c r="S3">
-        <v>0.2386073429092662</v>
+        <v>0.2102977598864866</v>
       </c>
       <c r="T3">
-        <v>0.2455567535384421</v>
+        <v>0.2142600898105723</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.36854</v>
+        <v>0.622153</v>
       </c>
       <c r="H4">
-        <v>1.10562</v>
+        <v>1.866459</v>
       </c>
       <c r="I4">
-        <v>0.6270882949984148</v>
+        <v>0.5959696685805808</v>
       </c>
       <c r="J4">
-        <v>0.6270882949984148</v>
+        <v>0.5959696685805808</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N4">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O4">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P4">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q4">
-        <v>43.24427144380667</v>
+        <v>85.27957476209264</v>
       </c>
       <c r="R4">
-        <v>389.1984429942601</v>
+        <v>767.5161728588338</v>
       </c>
       <c r="S4">
-        <v>0.1506869468432102</v>
+        <v>0.1551423439941177</v>
       </c>
       <c r="T4">
-        <v>0.155075686340085</v>
+        <v>0.1580654619219193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.36854</v>
+        <v>0.622153</v>
       </c>
       <c r="H5">
-        <v>1.10562</v>
+        <v>1.866459</v>
       </c>
       <c r="I5">
-        <v>0.6270882949984148</v>
+        <v>0.5959696685805808</v>
       </c>
       <c r="J5">
-        <v>0.6270882949984148</v>
+        <v>0.5959696685805808</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N5">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O5">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P5">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q5">
-        <v>15.27914286196</v>
+        <v>18.1747916516845</v>
       </c>
       <c r="R5">
-        <v>91.67485717176</v>
+        <v>109.048749910107</v>
       </c>
       <c r="S5">
-        <v>0.05324097993515207</v>
+        <v>0.03306395213992579</v>
       </c>
       <c r="T5">
-        <v>0.03652774478403969</v>
+        <v>0.02245795155344461</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.36854</v>
+        <v>0.622153</v>
       </c>
       <c r="H6">
-        <v>1.10562</v>
+        <v>1.866459</v>
       </c>
       <c r="I6">
-        <v>0.6270882949984148</v>
+        <v>0.5959696685805808</v>
       </c>
       <c r="J6">
-        <v>0.6270882949984148</v>
+        <v>0.5959696685805808</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N6">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O6">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P6">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q6">
-        <v>51.50868070092667</v>
+        <v>106.7355798714986</v>
       </c>
       <c r="R6">
-        <v>463.57812630834</v>
+        <v>960.6202188434878</v>
       </c>
       <c r="S6">
-        <v>0.1794847172030697</v>
+        <v>0.194175546665558</v>
       </c>
       <c r="T6">
-        <v>0.1847121883541983</v>
+        <v>0.1978341095503645</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2191603333333333</v>
+        <v>0.421781</v>
       </c>
       <c r="H7">
-        <v>0.657481</v>
+        <v>1.265343</v>
       </c>
       <c r="I7">
-        <v>0.3729117050015852</v>
+        <v>0.4040303314194192</v>
       </c>
       <c r="J7">
-        <v>0.3729117050015853</v>
+        <v>0.4040303314194192</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N7">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O7">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P7">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q7">
-        <v>0.8649545355048888</v>
+        <v>1.226052553319666</v>
       </c>
       <c r="R7">
-        <v>7.784590819543999</v>
+        <v>11.034472979877</v>
       </c>
       <c r="S7">
-        <v>0.003013979742560451</v>
+        <v>0.002230459843551387</v>
       </c>
       <c r="T7">
-        <v>0.003101761545935359</v>
+        <v>0.002272485102343234</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2191603333333333</v>
+        <v>0.421781</v>
       </c>
       <c r="H8">
-        <v>0.657481</v>
+        <v>1.265343</v>
       </c>
       <c r="I8">
-        <v>0.3729117050015852</v>
+        <v>0.4040303314194192</v>
       </c>
       <c r="J8">
-        <v>0.3729117050015853</v>
+        <v>0.4040303314194192</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P8">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q8">
-        <v>40.72059138234144</v>
+        <v>78.36806730765765</v>
       </c>
       <c r="R8">
-        <v>366.485322441073</v>
+        <v>705.312605768919</v>
       </c>
       <c r="S8">
-        <v>0.1418930504362504</v>
+        <v>0.1425687884856011</v>
       </c>
       <c r="T8">
-        <v>0.1460256687408046</v>
+        <v>0.1452550014874042</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2191603333333333</v>
+        <v>0.421781</v>
       </c>
       <c r="H9">
-        <v>0.657481</v>
+        <v>1.265343</v>
       </c>
       <c r="I9">
-        <v>0.3729117050015852</v>
+        <v>0.4040303314194192</v>
       </c>
       <c r="J9">
-        <v>0.3729117050015853</v>
+        <v>0.4040303314194192</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N9">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O9">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P9">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q9">
-        <v>25.71614735003478</v>
+        <v>57.81424235313531</v>
       </c>
       <c r="R9">
-        <v>231.445326150313</v>
+        <v>520.3281811782178</v>
       </c>
       <c r="S9">
-        <v>0.08960927307521629</v>
+        <v>0.105176850376327</v>
       </c>
       <c r="T9">
-        <v>0.09221913255057383</v>
+        <v>0.1071585423439074</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2191603333333333</v>
+        <v>0.421781</v>
       </c>
       <c r="H10">
-        <v>0.657481</v>
+        <v>1.265343</v>
       </c>
       <c r="I10">
-        <v>0.3729117050015852</v>
+        <v>0.4040303314194192</v>
       </c>
       <c r="J10">
-        <v>0.3729117050015853</v>
+        <v>0.4040303314194192</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N10">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O10">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P10">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q10">
-        <v>9.086074897364666</v>
+        <v>12.3213772137065</v>
       </c>
       <c r="R10">
-        <v>54.516449384188</v>
+        <v>73.92826328223899</v>
       </c>
       <c r="S10">
-        <v>0.03166090766153263</v>
+        <v>0.02241530105541569</v>
       </c>
       <c r="T10">
-        <v>0.02172201856727917</v>
+        <v>0.01522509296614084</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.2191603333333333</v>
+        <v>0.421781</v>
       </c>
       <c r="H11">
-        <v>0.657481</v>
+        <v>1.265343</v>
       </c>
       <c r="I11">
-        <v>0.3729117050015852</v>
+        <v>0.4040303314194192</v>
       </c>
       <c r="J11">
-        <v>0.3729117050015853</v>
+        <v>0.4040303314194192</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N11">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O11">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P11">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q11">
-        <v>30.63075821342411</v>
+        <v>72.36007800939731</v>
       </c>
       <c r="R11">
-        <v>275.676823920817</v>
+        <v>651.2407020845759</v>
       </c>
       <c r="S11">
-        <v>0.1067344940860254</v>
+        <v>0.1316389316585241</v>
       </c>
       <c r="T11">
-        <v>0.1098431235969923</v>
+        <v>0.1341192095196235</v>
       </c>
     </row>
   </sheetData>
